--- a/POC_Revisan/Data Layer/Input/INPUT.xlsx
+++ b/POC_Revisan/Data Layer/Input/INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\UiPath\GitHub\RevisanPOC\POC_Revisan\Data Layer\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A191543-12A2-441C-BA92-A474761F1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D408F-50B2-419D-B459-555BF9169623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2208" windowWidth="17280" windowHeight="8976" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Prenume</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Data efecte</t>
   </si>
   <si>
-    <t>Constantin</t>
-  </si>
-  <si>
     <t>Carte de identitate</t>
   </si>
   <si>
@@ -102,24 +99,9 @@
     <t>ABRUD</t>
   </si>
   <si>
-    <t>Sorin</t>
-  </si>
-  <si>
-    <t>Jeana</t>
-  </si>
-  <si>
-    <t>Herle</t>
-  </si>
-  <si>
     <t>România</t>
   </si>
   <si>
-    <t>Dorin</t>
-  </si>
-  <si>
-    <t>Marian</t>
-  </si>
-  <si>
     <t>Cluj</t>
   </si>
   <si>
@@ -139,6 +121,36 @@
   </si>
   <si>
     <t>Inegal</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Solca</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>cnpExists</t>
+  </si>
+  <si>
+    <t>succes</t>
+  </si>
+  <si>
+    <t>effDateEndDate</t>
+  </si>
+  <si>
+    <t>cNumberExists</t>
+  </si>
+  <si>
+    <t>invalidCnp</t>
   </si>
 </sst>
 </file>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML4"/>
+  <dimension ref="A1:AML6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,46 +639,46 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="4">
+        <v>6110805019555</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5110802017009</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5">
-        <v>2314232</v>
+        <v>2314423</v>
       </c>
       <c r="O2" s="6">
         <v>44390</v>
@@ -681,7 +693,7 @@
         <v>2199</v>
       </c>
       <c r="S2" s="6">
-        <v>44397</v>
+        <v>44468</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -689,46 +701,46 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6110805016488</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5110802016824</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N3" s="5">
-        <v>2314233</v>
+        <v>2314229</v>
       </c>
       <c r="O3" s="6">
         <v>44390</v>
@@ -743,51 +755,51 @@
         <v>2199</v>
       </c>
       <c r="S3" s="6">
-        <v>44397</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>5110802125066</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="N4" s="5">
-        <v>2314234</v>
+        <v>2314229</v>
       </c>
       <c r="O4" s="6">
         <v>44390</v>
@@ -802,7 +814,125 @@
         <v>2199</v>
       </c>
       <c r="S4" s="6">
-        <v>44397</v>
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6110805016488</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2314235</v>
+      </c>
+      <c r="O5" s="6">
+        <v>44390</v>
+      </c>
+      <c r="P5" s="6">
+        <v>44469</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>211101</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2199</v>
+      </c>
+      <c r="S5" s="6">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>611080501648</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2314236</v>
+      </c>
+      <c r="O6" s="6">
+        <v>44390</v>
+      </c>
+      <c r="P6" s="6">
+        <v>44469</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>211101</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2199</v>
+      </c>
+      <c r="S6" s="6">
+        <v>44489</v>
       </c>
     </row>
   </sheetData>
